--- a/conf/SIPP Asset from connected party-template.xlsx
+++ b/conf/SIPP Asset from connected party-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -20,7 +20,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The questions in this section relate to Asset from a connected party.</t>
+      <t>The questions in this section relate to any asset, other than land or property, acquired from a connected party.</t>
     </r>
     <r>
       <rPr>
@@ -67,6 +67,12 @@
     <t>Member date of birth</t>
   </si>
   <si>
+    <t>Member National Insurance number</t>
+  </si>
+  <si>
+    <t>If no National Insurance number for member, give reason</t>
+  </si>
+  <si>
     <t>How many asset transactions were made during the tax year and not reported in a previous return for this member?</t>
   </si>
   <si>
@@ -97,24 +103,6 @@
     <t>Who was the asset acquired from?</t>
   </si>
   <si>
-    <t>Was the asset acquired from an individual or company or partnership or other</t>
-  </si>
-  <si>
-    <t>If the asset was acquired from an individual enter the individuals National Insurance Number</t>
-  </si>
-  <si>
-    <t>Reason you do not have the individuals National Insurance number</t>
-  </si>
-  <si>
-    <t>If the asset was acquired from a company enter the CRN details</t>
-  </si>
-  <si>
-    <t>If the asset was acquired from a partnership enter the UTR details</t>
-  </si>
-  <si>
-    <t>Add the reason you do not have the individuals National Insurance number, the CRN or the UTR, or if the land or property was acquired from another source, enter the details</t>
-  </si>
-  <si>
     <t xml:space="preserve">What was the total cost of the asset acquired? </t>
   </si>
   <si>
@@ -133,64 +121,10 @@
     <t>If disposals were made what is the total amount of consideration received from the sale or disposal of the asset?</t>
   </si>
   <si>
-    <t>If disposals were made, what is the name of the purchaser?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the purchaser connected or unconnected party? </t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the second purchaser</t>
-  </si>
-  <si>
-    <t>Is this second purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the third purchaser</t>
-  </si>
-  <si>
-    <t>Is this third purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the fourth purchaser</t>
-  </si>
-  <si>
-    <t>Is this fourth purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the fifth purchaser</t>
-  </si>
-  <si>
-    <t>Is this fifth purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the sixth purchaser</t>
-  </si>
-  <si>
-    <t>Is this sixth purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the seventh purchaser</t>
-  </si>
-  <si>
-    <t>Is this seventh purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the eighth purchaser</t>
-  </si>
-  <si>
-    <t>Is this eighth purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the ninth purchaser</t>
-  </si>
-  <si>
-    <t>Is this ninth purchaser a connected or unconnected party?</t>
-  </si>
-  <si>
-    <t>If there are other purchasers enter the name of the tenth purchaser</t>
-  </si>
-  <si>
-    <t>Is this tenth purchaser a connected or unconnected party?</t>
+    <t>Names of purchasers</t>
+  </si>
+  <si>
+    <t>Are any of the purchasers connected parties?</t>
   </si>
   <si>
     <t>Was the transaction supported by an independent valuation?</t>
@@ -207,7 +141,7 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <rFont val="Calibri, Arial"/>
         <b/>
         <i/>
         <color theme="1"/>
@@ -217,7 +151,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <rFont val="Calibri, Arial"/>
         <b val="0"/>
         <i/>
         <color theme="1"/>
@@ -228,21 +162,29 @@
   </si>
   <si>
     <t>Enter the first name of the scheme member.
-Maximum of 35 characters. 
-Hyphens are accepted.
-Mandatory question.</t>
+Mandatory question.
+Hyphens are accepted.</t>
   </si>
   <si>
     <t>Enter the last name of the scheme member.
-Maximum of 35 characters. 
-Hyphens are accepted.
-Mandatory question.</t>
+Mandatory question.
+Hyphens are accepted.</t>
   </si>
   <si>
     <t>Use the format DD-MM-YYYY.
 Mandatory question.</t>
   </si>
   <si>
+    <t>Enter the individuals National Insurance Number. 
+If you do not know this, add the reason why you do not have this in the next column. 
+9 characters in alphanumeric in the format for example: AA999999A.
+Mandatory question.</t>
+  </si>
+  <si>
+    <t>Enter reason for not having the members National Insurance number.
+Maximum of 160 characters.</t>
+  </si>
+  <si>
     <t>Numerical.
 Mandatory question.</t>
   </si>
@@ -252,7 +194,7 @@
   </si>
   <si>
     <t>Mandatory question.
-Max of 160 characters</t>
+Max of 160 characters.</t>
   </si>
   <si>
     <t>Enter YES or NO.
@@ -277,34 +219,9 @@
 Mandatory question.</t>
   </si>
   <si>
-    <t>Enter INDIVIDUAL, COMPANY, PARTNERSHIP, or OTHER
-Mandatory question.</t>
-  </si>
-  <si>
-    <t>Enter individual or company or partnership or other</t>
-  </si>
-  <si>
-    <t>Enter the individuals National Insurance Number using the format AB123456A. 
-If you do not know this, add the reason why you do not have this in the relevant column.</t>
-  </si>
-  <si>
-    <t>Maximum of 160 characters.
-Mandatory question if  acquired from an individual but no National Insurance number entered.</t>
-  </si>
-  <si>
-    <t>Enter the Company Registration Number (CRN). 
-If you do not know this, add the reason why you do not have this in the relevant column.</t>
-  </si>
-  <si>
-    <t>Enter unique tax reference (UTR). 
-If you do not know this, add the reason why you do not have this in the relevant column.</t>
-  </si>
-  <si>
-    <t>If acquired from an individual: Enter reason for not having the individuals National Insurance Number.
-If acquired from a company: Enter reason for not having the CRN.
-If acquired from a partnership: Enter reason for not having the UTR.
-If acquired from another source: Enter the details.
-Maximum 160 characters.</t>
+    <t>Enter name or details.
+Max 160 characters.
+Mandatory Question</t>
   </si>
   <si>
     <t>Enter the total amount in GBP (in pounds and pence).
@@ -323,58 +240,16 @@
     <t>Enter the total amount in GBP (pounds and pence)</t>
   </si>
   <si>
-    <t>Max 160 characters.
-Hyphens are accepted.</t>
-  </si>
-  <si>
-    <t>Enter Connected or Unconnected</t>
-  </si>
-  <si>
-    <t>Enter name of second purchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter CONNECTED or UNCONNECTED</t>
-  </si>
-  <si>
-    <t>Enter name of third purchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter name of fourth purchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter name of fifth purchasere. 
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter name of sixth purchaser.
-Hyphens accepted.
+    <t xml:space="preserve">Enter name or details.
+Max 160 characters.
 </t>
-  </si>
-  <si>
-    <t>Enter name of seventh purchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter name of eighth purchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter name of ninth purchaser. 
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter name of tenth puvchaser.
-Hyphens accepted.</t>
-  </si>
-  <si>
-    <t>Enter YES or NO</t>
   </si>
   <si>
     <t xml:space="preserve">Enter YES or NO.
 </t>
+  </si>
+  <si>
+    <t>Enter YES or NO</t>
   </si>
   <si>
     <t>Min 1 - Max 7. 
@@ -385,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -397,12 +272,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <b/>
@@ -453,24 +322,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border/>
     <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -493,33 +351,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -532,67 +368,49 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +630,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="56.5"/>
-    <col customWidth="1" min="20" max="20" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -822,70 +639,70 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="8" t="s">
@@ -897,234 +714,101 @@
       <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="Z2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>57</v>
+      <c r="AB2" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="22"/>
-      <c r="T3" s="23"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4">
-      <c r="D4" s="24"/>
+      <c r="D4" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
